--- a/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B4888-7205-49CB-8058-8F3BF73F684B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE90EA-D05A-4C53-825B-239A8B09A4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>1 машина</t>
   </si>
@@ -45,30 +45,6 @@
     <t xml:space="preserve">ИТОГО: </t>
   </si>
   <si>
-    <t xml:space="preserve">Кумыкова - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тарасенко - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теплова - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обрымба - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сочи - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коныгин - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горина - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гурджий - </t>
-  </si>
-  <si>
     <t>т</t>
   </si>
   <si>
@@ -97,6 +73,42 @@
   </si>
   <si>
     <t>10-ка</t>
+  </si>
+  <si>
+    <t>Кумыкова</t>
+  </si>
+  <si>
+    <t>Тарасенко</t>
+  </si>
+  <si>
+    <t>Теплова</t>
+  </si>
+  <si>
+    <t>Обрымба</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Коныгин</t>
+  </si>
+  <si>
+    <t>Горина</t>
+  </si>
+  <si>
+    <t>Гурджий</t>
+  </si>
+  <si>
+    <t>Пушкарный</t>
+  </si>
+  <si>
+    <t>Новороссийск</t>
+  </si>
+  <si>
+    <t>Вес нетто, т</t>
+  </si>
+  <si>
+    <t>Вес брутто, кг</t>
   </si>
 </sst>
 </file>
@@ -528,17 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" style="12" bestFit="1" customWidth="1"/>
@@ -547,30 +559,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,28 +593,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14"/>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F9" si="0">ROUND(B3,1)</f>
+        <f t="shared" ref="F3:F11" si="0">ROUND(B3,1)</f>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -613,12 +625,12 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -629,12 +641,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -645,28 +657,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7" si="1">ROUND(B7,1)</f>
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -677,106 +689,150 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
+        <f>ROUND(B9,1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
-        <f>SUM(F2:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:D12" si="2">SUM(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(F2:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>SUMIF(E:E,1,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SUMIF(E:E,1,C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>SUMIF(E:E,1,D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f>SUMIF(E:E,1,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>SUMIF(E:E,1,C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>SUMIF(E:E,1,D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <f>SUMIF(E:E,2,B:B)</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <f>SUMIF(E:E,2,C:C)</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <f>SUMIF(E:E,2,D:D)</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <f>SUMIF(E:E,3,B:B)</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <f>SUMIF(E:E,3,C:C)</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <f>SUMIF(E:E,3,D:D)</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
+      <c r="E17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE90EA-D05A-4C53-825B-239A8B09A4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204A50-7485-4088-BD07-C1EF36238A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,9 +87,6 @@
     <t>Теплова</t>
   </si>
   <si>
-    <t>Обрымба</t>
-  </si>
-  <si>
     <t>Сочи</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Вес брутто, кг</t>
+  </si>
+  <si>
+    <t>Обрыньба</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,6 +263,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -582,14 +587,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
       <c r="F2" s="10">
-        <f>ROUND(B2,1)</f>
+        <f t="shared" ref="F2:F11" si="0">ROUND(B2,1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -598,14 +603,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14"/>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F11" si="0">ROUND(B3,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -614,7 +619,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -630,7 +635,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -646,7 +651,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -662,14 +667,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f t="shared" ref="F7" si="1">ROUND(B7,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -678,7 +683,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -694,14 +699,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f>ROUND(B9,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -710,7 +715,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -726,7 +731,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -745,17 +750,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:D12" si="2">SUM(B2:B11)</f>
+        <f>SUM(B2:B11)</f>
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
+        <f>SUM(C2:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUM(D2:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="11">
         <f>SUM(F2:F11)</f>
         <v>0</v>
@@ -764,51 +770,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="16">
+        <f>C12/17600</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D12/37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
         <f>SUMIF(E:E,1,B:B)</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>SUMIF(E:E,1,C:C)</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>SUMIF(E:E,1,D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <f>SUMIF(E:E,2,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>SUMIF(E:E,2,C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>SUMIF(E:E,2,D:D)</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -816,26 +812,49 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>SUMIF(E:E,2,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>SUMIF(E:E,2,C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>SUMIF(E:E,2,D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <f>SUMIF(E:E,3,B:B)</f>
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>SUMIF(E:E,3,C:C)</f>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>SUMIF(E:E,3,D:D)</f>
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204A50-7485-4088-BD07-C1EF36238A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F77A4-D927-4C6D-AE07-4F5B4BFF0092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +772,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
-        <f>C12/17600</f>
+        <f>C12/19800</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">

--- a/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F77A4-D927-4C6D-AE07-4F5B4BFF0092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D330688-0658-4826-B1FB-71BDC7DD8DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>1 машина</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Теплова</t>
-  </si>
-  <si>
-    <t>Сочи</t>
   </si>
   <si>
     <t>Коныгин</t>
@@ -545,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -587,14 +584,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F11" si="0">ROUND(B2,1)</f>
+        <f t="shared" ref="F2:F10" si="0">ROUND(B2,1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -603,7 +600,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -619,7 +616,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -651,7 +648,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -667,7 +664,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -683,7 +680,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -699,7 +696,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -715,7 +712,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -731,14 +728,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <f>SUM(B2:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C2:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(D2:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F10)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -746,65 +752,60 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <f>SUM(B2:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f>SUM(C2:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <f>SUM(D2:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11">
-        <f>SUM(F2:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="16">
-        <f>C12/19800</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <f>D12/37</f>
-        <v>0</v>
+      <c r="C12" s="16">
+        <f>C11/19800</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <f>D11/37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>SUMIF(E:E,1,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SUMIF(E:E,1,C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>SUMIF(E:E,1,D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
+      <c r="A16" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B16">
-        <f>SUMIF(E:E,1,B:B)</f>
+        <f>SUMIF(E:E,2,B:B)</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>SUMIF(E:E,1,C:C)</f>
+        <f>SUMIF(E:E,2,C:C)</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUMIF(E:E,1,D:D)</f>
+        <f>SUMIF(E:E,2,D:D)</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -812,47 +813,27 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1</v>
+      <c r="A17" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B17">
-        <f>SUMIF(E:E,2,B:B)</f>
+        <f>SUMIF(E:E,3,B:B)</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>SUMIF(E:E,2,C:C)</f>
+        <f>SUMIF(E:E,3,C:C)</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>SUMIF(E:E,2,D:D)</f>
+        <f>SUMIF(E:E,3,D:D)</f>
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <f>SUMIF(E:E,3,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>SUMIF(E:E,3,C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>SUMIF(E:E,3,D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины Краснодар.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D330688-0658-4826-B1FB-71BDC7DD8DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DCFC8-42CC-455B-9E48-966B27B891F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>1 машина</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>10-ка</t>
-  </si>
-  <si>
-    <t>Кумыкова</t>
   </si>
   <si>
     <t>Тарасенко</t>
@@ -542,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +561,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -584,14 +581,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F10" si="0">ROUND(B2,1)</f>
+        <f t="shared" ref="F2:F9" si="0">ROUND(B2,1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -600,7 +597,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -616,7 +613,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -632,7 +629,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -648,7 +645,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -664,7 +661,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -680,7 +677,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -712,14 +709,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM(C2:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -727,65 +733,60 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C2:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f>SUM(D2:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11">
-        <f>SUM(F2:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="16">
-        <f>C11/19800</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <f>D11/37</f>
-        <v>0</v>
+      <c r="C11" s="16">
+        <f>C10/19800</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>SUMIF(E:E,1,B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>SUMIF(E:E,1,C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>SUMIF(E:E,1,D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
+      <c r="A15" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B15">
-        <f>SUMIF(E:E,1,B:B)</f>
+        <f>SUMIF(E:E,2,B:B)</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>SUMIF(E:E,1,C:C)</f>
+        <f>SUMIF(E:E,2,C:C)</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUMIF(E:E,1,D:D)</f>
+        <f>SUMIF(E:E,2,D:D)</f>
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -793,47 +794,27 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
+      <c r="A16" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B16">
-        <f>SUMIF(E:E,2,B:B)</f>
+        <f>SUMIF(E:E,3,B:B)</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>SUMIF(E:E,2,C:C)</f>
+        <f>SUMIF(E:E,3,C:C)</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUMIF(E:E,2,D:D)</f>
+        <f>SUMIF(E:E,3,D:D)</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <f>SUMIF(E:E,3,B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>SUMIF(E:E,3,C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>SUMIF(E:E,3,D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
